--- a/data/gihun/dataset/광주시출산율모델.xlsx
+++ b/data/gihun/dataset/광주시출산율모델.xlsx
@@ -2693,14 +2693,18 @@
       <c r="C81" t="n">
         <v>0.3373134328358209</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="E81" t="n">
         <v>670</v>
       </c>
       <c r="F81" t="n">
         <v>76.068</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0.003884685046539298</v>
+      </c>
       <c r="H81" t="n">
         <v>54.8</v>
       </c>
@@ -2727,14 +2731,18 @@
       <c r="C82" t="n">
         <v>0.4047244094488189</v>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>9.325000000000001</v>
+      </c>
       <c r="E82" t="n">
         <v>635</v>
       </c>
       <c r="F82" t="n">
         <v>76.068</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0.003872684107183198</v>
+      </c>
       <c r="H82" t="n">
         <v>55.1</v>
       </c>
@@ -2761,14 +2769,18 @@
       <c r="C83" t="n">
         <v>0.3968705547652916</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>9.350000000000001</v>
+      </c>
       <c r="E83" t="n">
         <v>703</v>
       </c>
       <c r="F83" t="n">
         <v>76.36799999999999</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0.003860683167827098</v>
+      </c>
       <c r="H83" t="n">
         <v>55.4</v>
       </c>
@@ -2795,14 +2807,18 @@
       <c r="C84" t="n">
         <v>0.332807570977918</v>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>9.375</v>
+      </c>
       <c r="E84" t="n">
         <v>634</v>
       </c>
       <c r="F84" t="n">
         <v>76.51900000000001</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.003848682228470997</v>
+      </c>
       <c r="H84" t="n">
         <v>55.5</v>
       </c>
@@ -2829,14 +2845,18 @@
       <c r="C85" t="n">
         <v>0.3304878048780488</v>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>9.4</v>
+      </c>
       <c r="E85" t="n">
         <v>820</v>
       </c>
       <c r="F85" t="n">
         <v>76.819</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0.003836681289114897</v>
+      </c>
       <c r="H85" t="n">
         <v>55.7</v>
       </c>
@@ -2863,14 +2883,18 @@
       <c r="C86" t="n">
         <v>0.3427800269905533</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>9.425000000000001</v>
+      </c>
       <c r="E86" t="n">
         <v>741</v>
       </c>
       <c r="F86" t="n">
         <v>76.744</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0.003824680349758797</v>
+      </c>
       <c r="H86" t="n">
         <v>55.8</v>
       </c>
@@ -2897,14 +2921,18 @@
       <c r="C87" t="n">
         <v>0.3720073664825046</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="E87" t="n">
         <v>543</v>
       </c>
       <c r="F87" t="n">
         <v>77.045</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0.003812679410402696</v>
+      </c>
       <c r="H87" t="n">
         <v>55.9</v>
       </c>
@@ -2931,14 +2959,18 @@
       <c r="C88" t="n">
         <v>0.4203612479474548</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>9.475</v>
+      </c>
       <c r="E88" t="n">
         <v>609</v>
       </c>
       <c r="F88" t="n">
         <v>77.571</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0.003800678471046596</v>
+      </c>
       <c r="H88" t="n">
         <v>56</v>
       </c>
@@ -2965,14 +2997,18 @@
       <c r="C89" t="n">
         <v>0.6426966292134831</v>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>9.5</v>
+      </c>
       <c r="E89" t="n">
         <v>445</v>
       </c>
       <c r="F89" t="n">
         <v>77.79600000000001</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0.003788677531690496</v>
+      </c>
       <c r="H89" t="n">
         <v>56.3</v>
       </c>
@@ -2999,14 +3035,18 @@
       <c r="C90" t="n">
         <v>0.4084745762711864</v>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>9.525</v>
+      </c>
       <c r="E90" t="n">
         <v>590</v>
       </c>
       <c r="F90" t="n">
         <v>77.271</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0.003776676592334396</v>
+      </c>
       <c r="H90" t="n">
         <v>56.5</v>
       </c>
@@ -3033,14 +3073,18 @@
       <c r="C91" t="n">
         <v>0.311864406779661</v>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="E91" t="n">
         <v>885</v>
       </c>
       <c r="F91" t="n">
         <v>76.744</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0.003764675652978296</v>
+      </c>
       <c r="H91" t="n">
         <v>56.8</v>
       </c>
@@ -3067,14 +3111,18 @@
       <c r="C92" t="n">
         <v>0.1773927392739274</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>9.574999999999999</v>
+      </c>
       <c r="E92" t="n">
         <v>1212</v>
       </c>
       <c r="F92" t="n">
         <v>77.19499999999999</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0.003752674713622195</v>
+      </c>
       <c r="H92" t="n">
         <v>56.8</v>
       </c>
@@ -3101,14 +3149,18 @@
       <c r="C93" t="n">
         <v>0.2446120689655172</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>9.6</v>
+      </c>
       <c r="E93" t="n">
         <v>928</v>
       </c>
       <c r="F93" t="n">
         <v>77.271</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0.003740673774266095</v>
+      </c>
       <c r="H93" t="n">
         <v>56.8</v>
       </c>
@@ -3135,14 +3187,18 @@
       <c r="C94" t="n">
         <v>0.3521923620933522</v>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>9.475</v>
+      </c>
       <c r="E94" t="n">
         <v>707</v>
       </c>
       <c r="F94" t="n">
         <v>77.79600000000001</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0.003729117728260277</v>
+      </c>
       <c r="H94" t="n">
         <v>56.9</v>
       </c>
@@ -3169,14 +3225,18 @@
       <c r="C95" t="n">
         <v>0.3535911602209945</v>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>9.35</v>
+      </c>
       <c r="E95" t="n">
         <v>724</v>
       </c>
       <c r="F95" t="n">
         <v>78.32299999999999</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.003717561682254459</v>
+      </c>
       <c r="H95" t="n">
         <v>57</v>
       </c>
@@ -3203,14 +3263,18 @@
       <c r="C96" t="n">
         <v>0.296195652173913</v>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>9.225</v>
+      </c>
       <c r="E96" t="n">
         <v>736</v>
       </c>
       <c r="F96" t="n">
         <v>78.473</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.003706005636248641</v>
+      </c>
       <c r="H96" t="n">
         <v>57.2</v>
       </c>
@@ -3237,14 +3301,18 @@
       <c r="C97" t="n">
         <v>0.2980209545983702</v>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>9.1</v>
+      </c>
       <c r="E97" t="n">
         <v>859</v>
       </c>
       <c r="F97" t="n">
         <v>78.473</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0.003694449590242822</v>
+      </c>
       <c r="H97" t="n">
         <v>57.2</v>
       </c>
@@ -3271,14 +3339,18 @@
       <c r="C98" t="n">
         <v>0.289665211062591</v>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>8.975</v>
+      </c>
       <c r="E98" t="n">
         <v>687</v>
       </c>
       <c r="F98" t="n">
         <v>78.54900000000001</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0.003682893544237004</v>
+      </c>
       <c r="H98" t="n">
         <v>57.3</v>
       </c>
@@ -3305,14 +3377,18 @@
       <c r="C99" t="n">
         <v>0.3611111111111111</v>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>8.85</v>
+      </c>
       <c r="E99" t="n">
         <v>648</v>
       </c>
       <c r="F99" t="n">
         <v>78.92400000000001</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0.003671337498231186</v>
+      </c>
       <c r="H99" t="n">
         <v>57.5</v>
       </c>
@@ -3339,14 +3415,18 @@
       <c r="C100" t="n">
         <v>0.4106870229007634</v>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>8.725</v>
+      </c>
       <c r="E100" t="n">
         <v>655</v>
       </c>
       <c r="F100" t="n">
         <v>79</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.003659781452225368</v>
+      </c>
       <c r="H100" t="n">
         <v>57.5</v>
       </c>
@@ -3373,14 +3453,18 @@
       <c r="C101" t="n">
         <v>0.5321100917431193</v>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>8.6</v>
+      </c>
       <c r="E101" t="n">
         <v>436</v>
       </c>
       <c r="F101" t="n">
         <v>79.751</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0.00364822540621955</v>
+      </c>
       <c r="H101" t="n">
         <v>57.5</v>
       </c>
@@ -3407,14 +3491,18 @@
       <c r="C102" t="n">
         <v>0.458528951486698</v>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>8.475</v>
+      </c>
       <c r="E102" t="n">
         <v>639</v>
       </c>
       <c r="F102" t="n">
         <v>79.82599999999999</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0.003636669360213732</v>
+      </c>
       <c r="H102" t="n">
         <v>57.6</v>
       </c>
@@ -3441,14 +3529,18 @@
       <c r="C103" t="n">
         <v>0.3262764632627647</v>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>8.35</v>
+      </c>
       <c r="E103" t="n">
         <v>803</v>
       </c>
       <c r="F103" t="n">
         <v>79.901</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0.003625113314207913</v>
+      </c>
       <c r="H103" t="n">
         <v>57.7</v>
       </c>
@@ -3475,14 +3567,18 @@
       <c r="C104" t="n">
         <v>0.222007722007722</v>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>8.225</v>
+      </c>
       <c r="E104" t="n">
         <v>1036</v>
       </c>
       <c r="F104" t="n">
         <v>79.976</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0.003613557268202095</v>
+      </c>
       <c r="H104" t="n">
         <v>57.7</v>
       </c>
@@ -9898,7 +9994,9 @@
       <c r="F273" t="n">
         <v>104.59</v>
       </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>0.00138148518400858</v>
+      </c>
       <c r="H273" t="n">
         <v>103.6</v>
       </c>
@@ -9928,7 +10026,9 @@
       <c r="F274" t="n">
         <v>105.06</v>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>0.00138148518400858</v>
+      </c>
       <c r="H274" t="n">
         <v>103.8</v>
       </c>
@@ -9958,7 +10058,9 @@
       <c r="F275" t="n">
         <v>106.01</v>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>0.00138148518400858</v>
+      </c>
       <c r="H275" t="n">
         <v>104</v>
       </c>
@@ -9988,7 +10090,9 @@
       <c r="F276" t="n">
         <v>106.89</v>
       </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>0.00138148518400858</v>
+      </c>
       <c r="H276" t="n">
         <v>104.1</v>
       </c>
@@ -10018,7 +10122,9 @@
       <c r="F277" t="n">
         <v>107.91</v>
       </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>0.00138148518400858</v>
+      </c>
       <c r="H277" t="n">
         <v>104.2</v>
       </c>
@@ -10048,7 +10154,9 @@
       <c r="F278" t="n">
         <v>108.59</v>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>0.00138148518400858</v>
+      </c>
       <c r="H278" t="n">
         <v>104.4</v>
       </c>
@@ -10078,7 +10186,9 @@
       <c r="F279" t="n">
         <v>109.1</v>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>0.00138148518400858</v>
+      </c>
       <c r="H279" t="n">
         <v>104.4</v>
       </c>
@@ -10108,7 +10218,9 @@
       <c r="F280" t="n">
         <v>108.8</v>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>0.00138148518400858</v>
+      </c>
       <c r="H280" t="n">
         <v>104.2</v>
       </c>
@@ -10138,7 +10250,9 @@
       <c r="F281" t="n">
         <v>108.88</v>
       </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>0.00138148518400858</v>
+      </c>
       <c r="H281" t="n">
         <v>103.4</v>
       </c>
@@ -10168,7 +10282,9 @@
       <c r="F282" t="n">
         <v>109.23</v>
       </c>
-      <c r="G282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>0.00138148518400858</v>
+      </c>
       <c r="H282" t="n">
         <v>102.2</v>
       </c>
@@ -10198,7 +10314,9 @@
       <c r="F283" t="n">
         <v>109.19</v>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>0.00138148518400858</v>
+      </c>
       <c r="H283" t="n">
         <v>100.3</v>
       </c>
@@ -10222,13 +10340,15 @@
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>15.6</v>
+        <v>18</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
         <v>109.15</v>
       </c>
-      <c r="G284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>0.00138148518400858</v>
+      </c>
       <c r="H284" t="n">
         <v>98.09999999999999</v>
       </c>
@@ -10256,7 +10376,9 @@
       <c r="F285" t="n">
         <v>110.14</v>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>0.00138148518400858</v>
+      </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
